--- a/output/old/LeGi_PrevMethod.xlsx
+++ b/output/old/LeGi_PrevMethod.xlsx
@@ -519,10 +519,10 @@
         <v>0.5901639344262295</v>
       </c>
       <c r="E8">
-        <v>0.9367088607594937</v>
+        <v>0.9375</v>
       </c>
       <c r="F8">
-        <v>0.7857142857142857</v>
+        <v>0.7872340425531915</v>
       </c>
     </row>
     <row r="9">
